--- a/数据平台类目表.xlsx
+++ b/数据平台类目表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>数据平台类目表</t>
   </si>
@@ -31,10 +31,16 @@
     <t>说明</t>
   </si>
   <si>
+    <t>进度</t>
+  </si>
+  <si>
     <t>股票列表</t>
   </si>
   <si>
     <t>tb_stockbasic</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
   <si>
     <t>上市公司基本信息</t>
@@ -213,6 +219,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -228,16 +241,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,36 +289,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +302,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -304,47 +333,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,79 +371,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,96 +546,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +570,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +637,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -639,15 +663,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -656,15 +671,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,145 +679,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,13 +1162,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.7787610619469" customWidth="1"/>
     <col min="2" max="2" width="20.5840707964602" customWidth="1"/>
@@ -1170,15 +1176,16 @@
     <col min="4" max="4" width="33.7256637168142" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:4">
+    <row r="1" ht="36" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="16.1" spans="1:4">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="16.1" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1191,286 +1198,332 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="15" spans="1:4">
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="16.1" spans="1:5">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5"/>
-    </row>
-    <row r="4" ht="15" spans="1:4">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="16.1" spans="1:5">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" ht="15" spans="1:4">
+    </row>
+    <row r="5" ht="16.1" spans="1:5">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5"/>
-    </row>
-    <row r="6" ht="15" spans="1:4">
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="16.1" spans="1:5">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5"/>
-    </row>
-    <row r="7" ht="15" spans="1:4">
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="16.1" spans="1:5">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5"/>
-    </row>
-    <row r="8" ht="15" spans="1:4">
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="16.1" spans="1:5">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5"/>
-    </row>
-    <row r="9" ht="15" spans="1:4">
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="16.1" spans="1:5">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5"/>
-    </row>
-    <row r="10" ht="15" spans="1:4">
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="16.1" spans="1:5">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5"/>
-    </row>
-    <row r="11" ht="15" spans="1:4">
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="16.1" spans="1:5">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5"/>
-    </row>
-    <row r="12" ht="15" spans="1:4">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="16.1" spans="1:5">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5"/>
-    </row>
-    <row r="13" ht="15" spans="1:4">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="16.1" spans="1:5">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5"/>
-    </row>
-    <row r="14" ht="15" spans="1:4">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="16.1" spans="1:5">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5"/>
-    </row>
-    <row r="15" ht="15" spans="1:4">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="16.1" spans="1:5">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5"/>
-    </row>
-    <row r="16" ht="15" spans="1:4">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="16.1" spans="1:5">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="5"/>
-    </row>
-    <row r="17" ht="15" spans="1:4">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" ht="16.1" spans="1:5">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" s="5"/>
-    </row>
-    <row r="18" ht="15" spans="1:4">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" ht="16.1" spans="1:5">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" s="5"/>
-    </row>
-    <row r="19" ht="15" spans="1:4">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" ht="16.1" spans="1:5">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" s="5"/>
-    </row>
-    <row r="20" ht="15" spans="1:4">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" ht="16.1" spans="1:5">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="5"/>
-    </row>
-    <row r="21" ht="15" spans="1:4">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" ht="16.1" spans="1:5">
       <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D21" s="5"/>
-    </row>
-    <row r="22" ht="15" spans="1:4">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" ht="16.1" spans="1:5">
       <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5"/>
-    </row>
-    <row r="23" ht="15" spans="1:4">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" ht="16.1" spans="1:5">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" s="5"/>
-    </row>
-    <row r="24" ht="15" spans="1:4">
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" ht="16.1" spans="1:5">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D24" s="5"/>
-    </row>
-    <row r="25" ht="15" spans="1:4">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" ht="16.1" spans="1:5">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D25" s="6"/>
+      <c r="E25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
